--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il18-Il18r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il18-Il18r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.097665</v>
+        <v>4.603443333333334</v>
       </c>
       <c r="H2">
-        <v>0.19533</v>
+        <v>13.81033</v>
       </c>
       <c r="I2">
-        <v>0.001582406724321514</v>
+        <v>0.08158091023488877</v>
       </c>
       <c r="J2">
-        <v>0.001075431277232573</v>
+        <v>0.08188547928246082</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -567,22 +564,22 @@
         <v>1.6262</v>
       </c>
       <c r="O2">
-        <v>0.541124568792399</v>
+        <v>0.06271145883967605</v>
       </c>
       <c r="P2">
-        <v>0.541124568792399</v>
+        <v>0.06271145883967605</v>
       </c>
       <c r="Q2">
-        <v>0.05294094099999999</v>
+        <v>2.495373182888889</v>
       </c>
       <c r="R2">
-        <v>0.317645646</v>
+        <v>22.458358646</v>
       </c>
       <c r="S2">
-        <v>0.0008562791563526721</v>
+        <v>0.005116057894298533</v>
       </c>
       <c r="T2">
-        <v>0.0005819422861583351</v>
+        <v>0.005135157863589188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.097665</v>
+        <v>4.603443333333334</v>
       </c>
       <c r="H3">
-        <v>0.19533</v>
+        <v>13.81033</v>
       </c>
       <c r="I3">
-        <v>0.001582406724321514</v>
+        <v>0.08158091023488877</v>
       </c>
       <c r="J3">
-        <v>0.001075431277232573</v>
+        <v>0.08188547928246082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.08696799999999999</v>
+        <v>8.101754999999999</v>
       </c>
       <c r="N3">
-        <v>0.260904</v>
+        <v>24.305265</v>
       </c>
       <c r="O3">
-        <v>0.08681685186091015</v>
+        <v>0.9372885411603239</v>
       </c>
       <c r="P3">
-        <v>0.08681685186091015</v>
+        <v>0.9372885411603239</v>
       </c>
       <c r="Q3">
-        <v>0.008493729719999999</v>
+        <v>37.29597004305</v>
       </c>
       <c r="R3">
-        <v>0.05096237831999999</v>
+        <v>335.66373038745</v>
       </c>
       <c r="S3">
-        <v>0.000137379570169129</v>
+        <v>0.07646485234059024</v>
       </c>
       <c r="T3">
-        <v>9.33655578820897E-05</v>
+        <v>0.07675032141887163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.097665</v>
+        <v>36.354119</v>
       </c>
       <c r="H4">
-        <v>0.19533</v>
+        <v>109.062357</v>
       </c>
       <c r="I4">
-        <v>0.001582406724321514</v>
+        <v>0.6442573317525643</v>
       </c>
       <c r="J4">
-        <v>0.001075431277232573</v>
+        <v>0.6466625616201672</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3727063333333333</v>
+        <v>0.5420666666666666</v>
       </c>
       <c r="N4">
-        <v>1.118119</v>
+        <v>1.6262</v>
       </c>
       <c r="O4">
-        <v>0.3720585793466907</v>
+        <v>0.06271145883967605</v>
       </c>
       <c r="P4">
-        <v>0.3720585793466907</v>
+        <v>0.06271145883967605</v>
       </c>
       <c r="Q4">
-        <v>0.036400364045</v>
+        <v>19.70635610593333</v>
       </c>
       <c r="R4">
-        <v>0.21840218427</v>
+        <v>177.3572049534</v>
       </c>
       <c r="S4">
-        <v>0.0005887479977997131</v>
+        <v>0.04040231714236045</v>
       </c>
       <c r="T4">
-        <v>0.0004001234331921482</v>
+        <v>0.04055315261620259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.603443333333334</v>
+        <v>36.354119</v>
       </c>
       <c r="H5">
-        <v>13.81033</v>
+        <v>109.062357</v>
       </c>
       <c r="I5">
-        <v>0.07458679860441011</v>
+        <v>0.6442573317525643</v>
       </c>
       <c r="J5">
-        <v>0.07603573865204179</v>
+        <v>0.6466625616201672</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,166 +744,166 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5420666666666666</v>
+        <v>8.101754999999999</v>
       </c>
       <c r="N5">
-        <v>1.6262</v>
+        <v>24.305265</v>
       </c>
       <c r="O5">
-        <v>0.541124568792399</v>
+        <v>0.9372885411603239</v>
       </c>
       <c r="P5">
-        <v>0.541124568792399</v>
+        <v>0.9372885411603239</v>
       </c>
       <c r="Q5">
-        <v>2.495373182888889</v>
+        <v>294.5321653788449</v>
       </c>
       <c r="R5">
-        <v>22.458358646</v>
+        <v>2650.789488409604</v>
       </c>
       <c r="S5">
-        <v>0.04036074923241693</v>
+        <v>0.6038550146102037</v>
       </c>
       <c r="T5">
-        <v>0.04114480629089766</v>
+        <v>0.6061094090039646</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.603443333333334</v>
+        <v>0.629643</v>
       </c>
       <c r="H6">
-        <v>13.81033</v>
+        <v>1.259286</v>
       </c>
       <c r="I6">
-        <v>0.07458679860441011</v>
+        <v>0.01115835372428307</v>
       </c>
       <c r="J6">
-        <v>0.07603573865204179</v>
+        <v>0.00746667441427489</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.08696799999999999</v>
+        <v>0.5420666666666666</v>
       </c>
       <c r="N6">
-        <v>0.260904</v>
+        <v>1.6262</v>
       </c>
       <c r="O6">
-        <v>0.08681685186091015</v>
+        <v>0.06271145883967605</v>
       </c>
       <c r="P6">
-        <v>0.08681685186091015</v>
+        <v>0.06271145883967605</v>
       </c>
       <c r="Q6">
-        <v>0.4003522598133333</v>
+        <v>0.3413084821999999</v>
       </c>
       <c r="R6">
-        <v>3.60317033832</v>
+        <v>2.0478508932</v>
       </c>
       <c r="S6">
-        <v>0.006475391045218613</v>
+        <v>0.0006997566402989235</v>
       </c>
       <c r="T6">
-        <v>0.006601183458689192</v>
+        <v>0.000468246045200062</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.603443333333334</v>
+        <v>0.629643</v>
       </c>
       <c r="H7">
-        <v>13.81033</v>
+        <v>1.259286</v>
       </c>
       <c r="I7">
-        <v>0.07458679860441011</v>
+        <v>0.01115835372428307</v>
       </c>
       <c r="J7">
-        <v>0.07603573865204179</v>
+        <v>0.00746667441427489</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3727063333333333</v>
+        <v>8.101754999999999</v>
       </c>
       <c r="N7">
-        <v>1.118119</v>
+        <v>24.305265</v>
       </c>
       <c r="O7">
-        <v>0.3720585793466907</v>
+        <v>0.9372885411603239</v>
       </c>
       <c r="P7">
-        <v>0.3720585793466907</v>
+        <v>0.9372885411603239</v>
       </c>
       <c r="Q7">
-        <v>1.715732485474444</v>
+        <v>5.101213323464999</v>
       </c>
       <c r="R7">
-        <v>15.44159236927</v>
+        <v>30.60727994079</v>
       </c>
       <c r="S7">
-        <v>0.02775065832677456</v>
+        <v>0.01045859708398414</v>
       </c>
       <c r="T7">
-        <v>0.02828974890245492</v>
+        <v>0.006998428369074827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.02695066666666</v>
+        <v>6.102351666666666</v>
       </c>
       <c r="H8">
-        <v>69.08085199999999</v>
+        <v>18.307055</v>
       </c>
       <c r="I8">
-        <v>0.3730917071167061</v>
+        <v>0.1081441363544659</v>
       </c>
       <c r="J8">
-        <v>0.3803394711445981</v>
+        <v>0.1085478748824518</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,36 +936,36 @@
         <v>1.6262</v>
       </c>
       <c r="O8">
-        <v>0.541124568792399</v>
+        <v>0.06271145883967605</v>
       </c>
       <c r="P8">
-        <v>0.541124568792399</v>
+        <v>0.06271145883967605</v>
       </c>
       <c r="Q8">
-        <v>12.48214239137777</v>
+        <v>3.307881426777777</v>
       </c>
       <c r="R8">
-        <v>112.3392815224</v>
+        <v>29.77093284099999</v>
       </c>
       <c r="S8">
-        <v>0.2018890891335476</v>
+        <v>0.006781876555745404</v>
       </c>
       <c r="T8">
-        <v>0.2058110323178497</v>
+        <v>0.006807195587825181</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,60 +974,60 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.02695066666666</v>
+        <v>6.102351666666666</v>
       </c>
       <c r="H9">
-        <v>69.08085199999999</v>
+        <v>18.307055</v>
       </c>
       <c r="I9">
-        <v>0.3730917071167061</v>
+        <v>0.1081441363544659</v>
       </c>
       <c r="J9">
-        <v>0.3803394711445981</v>
+        <v>0.1085478748824518</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.08696799999999999</v>
+        <v>8.101754999999999</v>
       </c>
       <c r="N9">
-        <v>0.260904</v>
+        <v>24.305265</v>
       </c>
       <c r="O9">
-        <v>0.08681685186091015</v>
+        <v>0.9372885411603239</v>
       </c>
       <c r="P9">
-        <v>0.08681685186091015</v>
+        <v>0.9372885411603239</v>
       </c>
       <c r="Q9">
-        <v>2.002607845578666</v>
+        <v>49.43975812717499</v>
       </c>
       <c r="R9">
-        <v>18.023470610208</v>
+        <v>444.9578231445749</v>
       </c>
       <c r="S9">
-        <v>0.03239064746728516</v>
+        <v>0.1013622597987205</v>
       </c>
       <c r="T9">
-        <v>0.03301987552321748</v>
+        <v>0.1017406792946266</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,78 +1036,78 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.02695066666666</v>
+        <v>8.738390666666666</v>
       </c>
       <c r="H10">
-        <v>69.08085199999999</v>
+        <v>26.215172</v>
       </c>
       <c r="I10">
-        <v>0.3730917071167061</v>
+        <v>0.154859267933798</v>
       </c>
       <c r="J10">
-        <v>0.3803394711445981</v>
+        <v>0.1554374098006454</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3727063333333333</v>
+        <v>0.5420666666666666</v>
       </c>
       <c r="N10">
-        <v>1.118119</v>
+        <v>1.6262</v>
       </c>
       <c r="O10">
-        <v>0.3720585793466907</v>
+        <v>0.06271145883967605</v>
       </c>
       <c r="P10">
-        <v>0.3720585793466907</v>
+        <v>0.06271145883967605</v>
       </c>
       <c r="Q10">
-        <v>8.582290350820887</v>
+        <v>4.73679030071111</v>
       </c>
       <c r="R10">
-        <v>77.24061315738798</v>
+        <v>42.6311127064</v>
       </c>
       <c r="S10">
-        <v>0.1388119705158733</v>
+        <v>0.009711450606972741</v>
       </c>
       <c r="T10">
-        <v>0.1415085633035308</v>
+        <v>0.00974770672685903</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.43071</v>
+        <v>8.738390666666666</v>
       </c>
       <c r="H11">
-        <v>6.86142</v>
+        <v>26.215172</v>
       </c>
       <c r="I11">
-        <v>0.05558571210973288</v>
+        <v>0.154859267933798</v>
       </c>
       <c r="J11">
-        <v>0.03777702183089705</v>
+        <v>0.1554374098006454</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,524 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5420666666666666</v>
+        <v>8.101754999999999</v>
       </c>
       <c r="N11">
-        <v>1.6262</v>
+        <v>24.305265</v>
       </c>
       <c r="O11">
-        <v>0.541124568792399</v>
+        <v>0.9372885411603239</v>
       </c>
       <c r="P11">
-        <v>0.541124568792399</v>
+        <v>0.9372885411603239</v>
       </c>
       <c r="Q11">
-        <v>1.859673534</v>
+        <v>70.79630027561998</v>
       </c>
       <c r="R11">
-        <v>11.158041204</v>
+        <v>637.1667024805799</v>
       </c>
       <c r="S11">
-        <v>0.03007879449639764</v>
+        <v>0.1451478173268253</v>
       </c>
       <c r="T11">
-        <v>0.02044207464850521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>3.43071</v>
-      </c>
-      <c r="H12">
-        <v>6.86142</v>
-      </c>
-      <c r="I12">
-        <v>0.05558571210973288</v>
-      </c>
-      <c r="J12">
-        <v>0.03777702183089705</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.08696799999999999</v>
-      </c>
-      <c r="N12">
-        <v>0.260904</v>
-      </c>
-      <c r="O12">
-        <v>0.08681685186091015</v>
-      </c>
-      <c r="P12">
-        <v>0.08681685186091015</v>
-      </c>
-      <c r="Q12">
-        <v>0.29836198728</v>
-      </c>
-      <c r="R12">
-        <v>1.79017192368</v>
-      </c>
-      <c r="S12">
-        <v>0.004825776533813879</v>
-      </c>
-      <c r="T12">
-        <v>0.003279682108039358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.43071</v>
-      </c>
-      <c r="H13">
-        <v>6.86142</v>
-      </c>
-      <c r="I13">
-        <v>0.05558571210973288</v>
-      </c>
-      <c r="J13">
-        <v>0.03777702183089705</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.3727063333333333</v>
-      </c>
-      <c r="N13">
-        <v>1.118119</v>
-      </c>
-      <c r="O13">
-        <v>0.3720585793466907</v>
-      </c>
-      <c r="P13">
-        <v>0.3720585793466907</v>
-      </c>
-      <c r="Q13">
-        <v>1.27864734483</v>
-      </c>
-      <c r="R13">
-        <v>7.671884068979999</v>
-      </c>
-      <c r="S13">
-        <v>0.02068114107952136</v>
-      </c>
-      <c r="T13">
-        <v>0.01405526507435248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.451068</v>
-      </c>
-      <c r="H14">
-        <v>1.353204</v>
-      </c>
-      <c r="I14">
-        <v>0.0073083810610378</v>
-      </c>
-      <c r="J14">
-        <v>0.007450355327272958</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.5420666666666666</v>
-      </c>
-      <c r="N14">
-        <v>1.6262</v>
-      </c>
-      <c r="O14">
-        <v>0.541124568792399</v>
-      </c>
-      <c r="P14">
-        <v>0.541124568792399</v>
-      </c>
-      <c r="Q14">
-        <v>0.2445089271999999</v>
-      </c>
-      <c r="R14">
-        <v>2.2005803448</v>
-      </c>
-      <c r="S14">
-        <v>0.003954744550224615</v>
-      </c>
-      <c r="T14">
-        <v>0.004031570313820731</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.451068</v>
-      </c>
-      <c r="H15">
-        <v>1.353204</v>
-      </c>
-      <c r="I15">
-        <v>0.0073083810610378</v>
-      </c>
-      <c r="J15">
-        <v>0.007450355327272958</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.08696799999999999</v>
-      </c>
-      <c r="N15">
-        <v>0.260904</v>
-      </c>
-      <c r="O15">
-        <v>0.08681685186091015</v>
-      </c>
-      <c r="P15">
-        <v>0.08681685186091015</v>
-      </c>
-      <c r="Q15">
-        <v>0.039228481824</v>
-      </c>
-      <c r="R15">
-        <v>0.3530563364159999</v>
-      </c>
-      <c r="S15">
-        <v>0.0006344906359192</v>
-      </c>
-      <c r="T15">
-        <v>0.0006468163947589991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.451068</v>
-      </c>
-      <c r="H16">
-        <v>1.353204</v>
-      </c>
-      <c r="I16">
-        <v>0.0073083810610378</v>
-      </c>
-      <c r="J16">
-        <v>0.007450355327272958</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.3727063333333333</v>
-      </c>
-      <c r="N16">
-        <v>1.118119</v>
-      </c>
-      <c r="O16">
-        <v>0.3720585793466907</v>
-      </c>
-      <c r="P16">
-        <v>0.3720585793466907</v>
-      </c>
-      <c r="Q16">
-        <v>0.168115900364</v>
-      </c>
-      <c r="R16">
-        <v>1.513043103276</v>
-      </c>
-      <c r="S16">
-        <v>0.002719145874893984</v>
-      </c>
-      <c r="T16">
-        <v>0.002771968618693225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>30.10944066666667</v>
-      </c>
-      <c r="H17">
-        <v>90.328322</v>
-      </c>
-      <c r="I17">
-        <v>0.4878449943837915</v>
-      </c>
-      <c r="J17">
-        <v>0.4973219817679575</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.5420666666666666</v>
-      </c>
-      <c r="N17">
-        <v>1.6262</v>
-      </c>
-      <c r="O17">
-        <v>0.541124568792399</v>
-      </c>
-      <c r="P17">
-        <v>0.541124568792399</v>
-      </c>
-      <c r="Q17">
-        <v>16.32132413737778</v>
-      </c>
-      <c r="R17">
-        <v>146.8919172364</v>
-      </c>
-      <c r="S17">
-        <v>0.2639849122234595</v>
-      </c>
-      <c r="T17">
-        <v>0.2691131429351673</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>30.10944066666667</v>
-      </c>
-      <c r="H18">
-        <v>90.328322</v>
-      </c>
-      <c r="I18">
-        <v>0.4878449943837915</v>
-      </c>
-      <c r="J18">
-        <v>0.4973219817679575</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.08696799999999999</v>
-      </c>
-      <c r="N18">
-        <v>0.260904</v>
-      </c>
-      <c r="O18">
-        <v>0.08681685186091015</v>
-      </c>
-      <c r="P18">
-        <v>0.08681685186091015</v>
-      </c>
-      <c r="Q18">
-        <v>2.618557835898666</v>
-      </c>
-      <c r="R18">
-        <v>23.567020523088</v>
-      </c>
-      <c r="S18">
-        <v>0.04235316660850417</v>
-      </c>
-      <c r="T18">
-        <v>0.04317592881832302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>30.10944066666667</v>
-      </c>
-      <c r="H19">
-        <v>90.328322</v>
-      </c>
-      <c r="I19">
-        <v>0.4878449943837915</v>
-      </c>
-      <c r="J19">
-        <v>0.4973219817679575</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.3727063333333333</v>
-      </c>
-      <c r="N19">
-        <v>1.118119</v>
-      </c>
-      <c r="O19">
-        <v>0.3720585793466907</v>
-      </c>
-      <c r="P19">
-        <v>0.3720585793466907</v>
-      </c>
-      <c r="Q19">
-        <v>11.22197922959089</v>
-      </c>
-      <c r="R19">
-        <v>100.997813066318</v>
-      </c>
-      <c r="S19">
-        <v>0.1815069155518278</v>
-      </c>
-      <c r="T19">
-        <v>0.1850329100144671</v>
+        <v>0.1456897030737863</v>
       </c>
     </row>
   </sheetData>
